--- a/2022 1학기 강의 출석,진도.xlsx
+++ b/2022 1학기 강의 출석,진도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이나영\Desktop\DG-2022-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32331E0-5F8C-46A5-896C-8F71EE129671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98555551-C5AC-45B5-85E3-0387108D6088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{2F123E27-22C4-483E-89E0-73D84F281091}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{2F123E27-22C4-483E-89E0-73D84F281091}"/>
   </bookViews>
   <sheets>
     <sheet name="진도" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,14 @@
   </si>
   <si>
     <t>week2 ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lec2 p.1-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lec2 p.1-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +328,22 @@
       <color theme="4"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -463,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +610,33 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7D0145-266E-4CCF-B434-F1682AA76DFB}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1065,14 +1116,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="41">
         <v>44622</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>73</v>
+      <c r="C5" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="D5" s="11">
         <v>44622</v>
@@ -1106,13 +1157,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="44">
         <v>44627</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="46" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="8">
@@ -1133,22 +1184,24 @@
       <c r="I6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="47">
         <v>44628</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="47">
         <v>44628</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="O6" s="49" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
@@ -2013,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D41FEA-DA5B-4406-9BA9-1FD5ADE7C354}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
